--- a/del_user/shuttle.xlsx
+++ b/del_user/shuttle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\php_sites\shuttle\resources\add_user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>ARVINDER SINGH BAINS</t>
+  </si>
+  <si>
+    <t>arvinder.bains@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>ASHISH PATHAK</t>
+  </si>
+  <si>
+    <t>ashish.pathak@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>HIMANSHU SINGHAL</t>
+  </si>
+  <si>
+    <t>himanshu.singhal@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Mohona Roy</t>
+  </si>
+  <si>
+    <t>mohona.roy@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Vanita Shastri</t>
+  </si>
+  <si>
+    <t>vanita.shastri@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>RAJEEV SRIVASTAV</t>
+  </si>
+  <si>
+    <t>rajeev.srivastav@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Anu Batra</t>
+  </si>
+  <si>
+    <t>anu.batra@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>PUNJAY KUMAR</t>
+  </si>
+  <si>
+    <t>punjay.maurya@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>SUBHASH CHANDRA</t>
+  </si>
+  <si>
+    <t>subhash.chandra@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>TANITA ABRAHAM</t>
+  </si>
+  <si>
+    <t>tanita.abraham@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Akanksha Gulia</t>
+  </si>
+  <si>
+    <t>akanksha.gulia@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Madhukar Pandey</t>
+  </si>
+  <si>
+    <t>madhukar.pandey@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>chandresh.kumar@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Chandresh</t>
+  </si>
+  <si>
+    <t>stephen.matto@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>Stephen Matto</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -35,29 +119,82 @@
     <t>pass</t>
   </si>
   <si>
-    <t>sanat</t>
-  </si>
-  <si>
-    <t>sanat 2</t>
-  </si>
-  <si>
-    <t>he ji reeeee</t>
-  </si>
-  <si>
-    <t>ooo ji reee</t>
+    <t>b@123</t>
+  </si>
+  <si>
+    <t>b@124</t>
+  </si>
+  <si>
+    <t>b@125</t>
+  </si>
+  <si>
+    <t>b@126</t>
+  </si>
+  <si>
+    <t>b@127</t>
+  </si>
+  <si>
+    <t>b@128</t>
+  </si>
+  <si>
+    <t>b@129</t>
+  </si>
+  <si>
+    <t>b@130</t>
+  </si>
+  <si>
+    <t>b@131</t>
+  </si>
+  <si>
+    <t>b@132</t>
+  </si>
+  <si>
+    <t>b@133</t>
+  </si>
+  <si>
+    <t>b@134</t>
+  </si>
+  <si>
+    <t>b@135</t>
+  </si>
+  <si>
+    <t>b@136</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,14 +214,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,54 +528,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="C7" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>221</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="B13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>